--- a/game.xlsx
+++ b/game.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\Desktop\WB_Digi\02_Logic_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B8DE512-E32D-406F-BBFB-5ECE65753A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634EE412-BF77-4900-AF27-3B4B4CFA0F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2B6EEC9-945B-4302-93B3-AA3A94B78F3C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{F2B6EEC9-945B-4302-93B3-AA3A94B78F3C}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,13 +118,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -139,13 +153,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,13 +508,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A9884B-8616-4BF5-9947-A6E74E0CE5A2}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
     <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" customWidth="1"/>
     <col min="4" max="4" width="15.26953125" customWidth="1"/>
@@ -595,7 +619,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,7 +638,7 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>
@@ -622,15 +646,25 @@
     </row>
     <row r="3" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
@@ -644,10 +678,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D947CA-1C8C-49DE-A357-73C3F4E62A80}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -693,20 +727,26 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -714,36 +754,66 @@
         <v>15</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3"/>
@@ -773,6 +843,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
+    <row r="27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -780,10 +851,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87CE4F3-87F2-483F-A2EA-27A6940FEDF3}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -791,55 +862,92 @@
     <col min="1" max="1" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -848,10 +956,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68592A64-4928-477D-BE82-917AEAE8888C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -890,127 +998,198 @@
         <v>16</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
